--- a/FUNKCE/graphs/ALL-LIKEE-1-2048.xlsx
+++ b/FUNKCE/graphs/ALL-LIKEE-1-2048.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list1" sheetId="1" r:id="rId1"/>
@@ -4285,6 +4285,463 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>'transposed4 '!$B$1:$BS$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63AF-43A3-91E7-21EC5F091D8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'transposed4 '!$B$1:$BS$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>'transposed4 '!$B$2:$BS$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -4504,7 +4961,726 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-63AF-43A3-91E7-21EC5F091D8A}"/>
+              <c16:uniqueId val="{00000000-ACCE-4027-925A-2F61232D1104}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'transposed4 '!$B$1:$BS$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transposed4 '!$B$3:$BS$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>42228361.990099363</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42228361.990099363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42228361.990099363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42228361.990099363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42228361.990099363</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54017157.657604247</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54017157.657604247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54017157.657604247</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54017157.657604247</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54017157.657604247</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67228066.048667997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67228066.048667997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67228066.048667997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67228066.048667997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67228066.048667997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89108116.732687995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89108116.732687995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>89108116.732687995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>89108116.732687995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89108116.732687995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>127783118.51750001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>127783118.51750001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>127783118.51750001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>127783118.51750001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>127783118.51750001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>142498614.88390625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>142498614.88390625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>142498614.88390625</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>142498614.88390625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>142498614.88390625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>153214045.53000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>153214045.53000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>153214045.53000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>153214045.53000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>153214045.53000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>265094823.82999986</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>265094823.82999986</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>265094823.82999986</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>265094823.82999986</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>265094823.82999986</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>367361564.92999941</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>367361564.92999941</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>367361564.92999941</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>367361564.92999941</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>367361564.92999941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACCE-4027-925A-2F61232D1104}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'transposed4 '!$B$1:$BS$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transposed4 '!$B$4:$BS$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="40">
+                  <c:v>354276132.52987003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>354276132.52987003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>354276132.52987003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>354276132.52987003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>354276132.52987003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1076129225.9187498</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1076129225.9187498</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1076129225.9187498</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1076129225.9187498</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1076129225.9187498</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1576255610.6277332</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1576255610.6277332</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1576255610.6277332</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1576255610.6277332</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1576255610.6277332</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1824226339.6999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1824226339.6999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1824226339.6999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1824226339.6999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1824226339.6999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2498589360.2000008</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2498589360.2000008</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2498589360.2000008</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2498589360.2000008</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2498589360.2000008</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2566901218.71875</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2566901218.71875</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2566901218.71875</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2566901218.71875</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2566901218.71875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ACCE-4027-925A-2F61232D1104}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4674,6 +5850,3762 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'transposed4 '!$B$1:$BS$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transposed4 '!$B$1:$BS$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29D6-4070-9316-E340953CF7EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'transposed4 '!$B$1:$BS$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transposed4 '!$B$2:$BS$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>41981536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38285869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27465366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32546661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28041634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69899462</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69151156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51380609</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51936695</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69142809</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61360675</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64127440</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73126487</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65941604</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63376322</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100470851</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>98898064</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100091233</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75309790</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100066445</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>133251450</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>132353075</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>112147404</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>112130434</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>127017734</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>124009219</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>162528304</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>133824618</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>137066688</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>140441782</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>154803130</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>147349635</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>166642524</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>150457284</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>165691992</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>260072252</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>283072730</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>245755802</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>285472897</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>248895879</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>351045000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>362155256</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>351864033</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>369623497</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>402396031</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1010070286</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1029431552</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1012523822</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1076203972</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1046003467</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1762742669</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1510326039</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1634320165</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1641279457</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1584237037</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1900734392</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1717660650</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1939112717</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1684977855</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1760695782</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2632718036</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2498393500</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2573702930</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2416687128</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2381158759</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2369311805</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2572210228</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2425527150</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2631410765</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2833365448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-29D6-4070-9316-E340953CF7EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="513622040"/>
+        <c:axId val="513619088"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:tint val="86000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'transposed4 '!$B$1:$BS$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="70"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>7500</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>7500</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>7500</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>7500</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>7500</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>75000</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>75000</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>75000</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>75000</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>75000</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>250000</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>250000</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>250000</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>250000</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>250000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'transposed4 '!$B$3:$BS$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="70"/>
+                      <c:pt idx="0">
+                        <c:v>42228361.990099363</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42228361.990099363</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>42228361.990099363</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>42228361.990099363</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>42228361.990099363</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>54017157.657604247</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>54017157.657604247</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>54017157.657604247</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>54017157.657604247</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>54017157.657604247</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>67228066.048667997</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>67228066.048667997</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>67228066.048667997</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>67228066.048667997</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>67228066.048667997</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>89108116.732687995</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>89108116.732687995</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>89108116.732687995</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>89108116.732687995</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>89108116.732687995</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>127783118.51750001</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>127783118.51750001</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>127783118.51750001</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>127783118.51750001</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>127783118.51750001</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>142498614.88390625</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>142498614.88390625</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>142498614.88390625</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>142498614.88390625</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>142498614.88390625</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>153214045.53000003</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>153214045.53000003</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>153214045.53000003</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>153214045.53000003</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>153214045.53000003</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>265094823.82999986</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>265094823.82999986</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>265094823.82999986</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>265094823.82999986</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>265094823.82999986</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>367361564.92999941</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>367361564.92999941</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>367361564.92999941</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>367361564.92999941</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>367361564.92999941</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-29D6-4070-9316-E340953CF7EA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:tint val="58000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'transposed4 '!$B$1:$BS$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="70"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>7500</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>7500</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>7500</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>7500</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>7500</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>75000</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>75000</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>75000</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>75000</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>75000</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>250000</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>250000</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>250000</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>250000</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>250000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'transposed4 '!$B$4:$BS$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="70"/>
+                      <c:pt idx="40">
+                        <c:v>354276132.52987003</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>354276132.52987003</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>354276132.52987003</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>354276132.52987003</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>354276132.52987003</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>1076129225.9187498</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>1076129225.9187498</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>1076129225.9187498</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>1076129225.9187498</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>1076129225.9187498</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>1576255610.6277332</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>1576255610.6277332</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>1576255610.6277332</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>1576255610.6277332</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>1576255610.6277332</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>1824226339.6999998</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>1824226339.6999998</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>1824226339.6999998</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>1824226339.6999998</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>1824226339.6999998</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>2498589360.2000008</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>2498589360.2000008</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>2498589360.2000008</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>2498589360.2000008</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>2498589360.2000008</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>2566901218.71875</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>2566901218.71875</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>2566901218.71875</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>2566901218.71875</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>2566901218.71875</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-29D6-4070-9316-E340953CF7EA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="513622040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513619088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="513619088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513622040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:tint val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'transposed4 '!$B$1:$BS$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transposed4 '!$B$1:$BS$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FAC-42F4-85CC-084BD92382F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:shade val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'transposed4 '!$B$1:$BS$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transposed4 '!$B$3:$BS$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>42228361.990099363</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42228361.990099363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42228361.990099363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42228361.990099363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42228361.990099363</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54017157.657604247</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54017157.657604247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54017157.657604247</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54017157.657604247</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54017157.657604247</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67228066.048667997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67228066.048667997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67228066.048667997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67228066.048667997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67228066.048667997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89108116.732687995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89108116.732687995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>89108116.732687995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>89108116.732687995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89108116.732687995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>127783118.51750001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>127783118.51750001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>127783118.51750001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>127783118.51750001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>127783118.51750001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>142498614.88390625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>142498614.88390625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>142498614.88390625</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>142498614.88390625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>142498614.88390625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>153214045.53000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>153214045.53000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>153214045.53000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>153214045.53000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>153214045.53000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>265094823.82999986</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>265094823.82999986</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>265094823.82999986</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>265094823.82999986</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>265094823.82999986</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>367361564.92999941</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>367361564.92999941</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>367361564.92999941</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>367361564.92999941</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>367361564.92999941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9FAC-42F4-85CC-084BD92382F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'transposed4 '!$B$1:$BS$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'transposed4 '!$B$4:$BS$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="40">
+                  <c:v>354276132.52987003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>354276132.52987003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>354276132.52987003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>354276132.52987003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>354276132.52987003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1076129225.9187498</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1076129225.9187498</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1076129225.9187498</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1076129225.9187498</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1076129225.9187498</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1576255610.6277332</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1576255610.6277332</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1576255610.6277332</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1576255610.6277332</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1576255610.6277332</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1824226339.6999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1824226339.6999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1824226339.6999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1824226339.6999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1824226339.6999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2498589360.2000008</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2498589360.2000008</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2498589360.2000008</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2498589360.2000008</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2498589360.2000008</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2566901218.71875</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2566901218.71875</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2566901218.71875</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2566901218.71875</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2566901218.71875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9FAC-42F4-85CC-084BD92382F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="513622040"/>
+        <c:axId val="513619088"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:tint val="86000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'transposed4 '!$B$1:$BS$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="70"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>7500</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>7500</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>7500</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>7500</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>7500</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>30000</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>75000</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>75000</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>75000</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>75000</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>75000</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>200000</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>250000</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>250000</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>250000</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>250000</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>250000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'transposed4 '!$B$2:$BS$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="70"/>
+                      <c:pt idx="0">
+                        <c:v>41981536</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>38285869</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>27465366</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>32546661</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>28041634</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>69899462</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>69151156</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>51380609</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>51936695</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>69142809</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>61360675</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>64127440</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>73126487</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>65941604</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>63376322</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>100470851</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>98898064</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>100091233</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>75309790</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>100066445</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>133251450</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>132353075</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>112147404</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>112130434</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>127017734</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>124009219</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>162528304</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>133824618</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>137066688</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>140441782</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>154803130</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>147349635</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>166642524</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>150457284</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>165691992</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>260072252</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>283072730</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>245755802</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>285472897</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>248895879</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>351045000</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>362155256</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>351864033</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>369623497</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>402396031</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>1010070286</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>1029431552</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>1012523822</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>1076203972</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>1046003467</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>1762742669</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>1510326039</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>1634320165</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>1641279457</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>1584237037</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>1900734392</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>1717660650</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>1939112717</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>1684977855</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>1760695782</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>2632718036</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>2498393500</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>2573702930</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>2416687128</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>2381158759</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>2369311805</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>2572210228</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>2425527150</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>2631410765</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>2833365448</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-9FAC-42F4-85CC-084BD92382F6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="513622040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513619088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="513619088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513622040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="cs-CZ"/>
@@ -5507,6 +10439,18 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="24">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7559,6 +12503,1012 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13242,16 +19192,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>857249</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16328,6 +22278,82 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>503465</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>29937</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="64" name="Graf 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F2C52A8-0E15-47B5-8431-A7F10E45AA21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>708162</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>544877</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>35853</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="65" name="Graf 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A6A3E6-77C9-4C9A-83DE-4989124545C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24825,8 +30851,8 @@
   <sheetPr codeName="List2"/>
   <dimension ref="A1:BS130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="J3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25438,168 +31464,8 @@
       </c>
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <f>-6.175936673*10^(-12)*B1^4+3.800259305*10^(-6)*B1^3-0.844485045*B1^2+86710.04245*B1-1584593093</f>
-        <v>-1575930529.8058083</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:BN4" si="1">-6.175936673*10^(-12)*C1^4+3.800259305*10^(-6)*C1^3-0.844485045*C1^2+86710.04245*C1-1584593093</f>
-        <v>-1575930529.8058083</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>-1575930529.8058083</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>-1575930529.8058083</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>-1575930529.8058083</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>-1541448718.389833</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>-1541448718.389833</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>-1541448718.389833</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
-        <v>-1541448718.389833</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>-1541448718.389833</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
-        <v>-1498723741.5116317</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="1"/>
-        <v>-1498723741.5116317</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
-        <v>-1498723741.5116317</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="1"/>
-        <v>-1498723741.5116317</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="1"/>
-        <v>-1498723741.5116317</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="1"/>
-        <v>-1414520645.0205469</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="1"/>
-        <v>-1414520645.0205469</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="1"/>
-        <v>-1414520645.0205469</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="1"/>
-        <v>-1414520645.0205469</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="1"/>
-        <v>-1414520645.0205469</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="1"/>
-        <v>-1171683834.4222956</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="1"/>
-        <v>-1171683834.4222956</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="1"/>
-        <v>-1171683834.4222956</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="1"/>
-        <v>-1171683834.4222956</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="1"/>
-        <v>-1171683834.4222956</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="1"/>
-        <v>-980186365.06158257</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="1"/>
-        <v>-980186365.06158257</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" si="1"/>
-        <v>-980186365.06158257</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" si="1"/>
-        <v>-980186365.06158257</v>
-      </c>
-      <c r="AE4">
-        <f t="shared" si="1"/>
-        <v>-980186365.06158257</v>
-      </c>
-      <c r="AF4">
-        <f t="shared" si="1"/>
-        <v>-798202673.06173015</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" si="1"/>
-        <v>-798202673.06173015</v>
-      </c>
-      <c r="AH4">
-        <f t="shared" si="1"/>
-        <v>-798202673.06173015</v>
-      </c>
-      <c r="AI4">
-        <f t="shared" si="1"/>
-        <v>-798202673.06173015</v>
-      </c>
-      <c r="AJ4">
-        <f t="shared" si="1"/>
-        <v>-798202673.06173015</v>
-      </c>
-      <c r="AK4">
-        <f t="shared" si="1"/>
-        <v>-158772337.42768025</v>
-      </c>
-      <c r="AL4">
-        <f t="shared" si="1"/>
-        <v>-158772337.42768025</v>
-      </c>
-      <c r="AM4">
-        <f t="shared" si="1"/>
-        <v>-158772337.42768025</v>
-      </c>
-      <c r="AN4">
-        <f t="shared" si="1"/>
-        <v>-158772337.42768025</v>
-      </c>
-      <c r="AO4">
-        <f t="shared" si="1"/>
-        <v>-158772337.42768025</v>
-      </c>
       <c r="AP4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C4:BN4" si="1">-6.175936673*10^(-12)*AP1^4+3.800259305*10^(-6)*AP1^3-0.844485045*AP1^2+86710.04245*AP1-1584593093</f>
         <v>354276132.52987003</v>
       </c>
       <c r="AQ4">
